--- a/biology/Botanique/Trientale_d'Europe/Trientale_d'Europe.xlsx
+++ b/biology/Botanique/Trientale_d'Europe/Trientale_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Trientale_d%27Europe</t>
+          <t>Trientale_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trientalis europaea
-Le Trientale d'Europe (Trientalis europaea) est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique de Cronquist (1981)[1] ou selon la classification phylogénétique APG III (2009)[2], mais des Myrsinacées selon la classification phylogénétique APG II (2003)[3].
+Le Trientale d'Europe (Trientalis europaea) est une espèce de plantes à fleurs de la famille des Primulacées selon la classification classique de Cronquist (1981) ou selon la classification phylogénétique APG III (2009), mais des Myrsinacées selon la classification phylogénétique APG II (2003).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Trientale_d%27Europe</t>
+          <t>Trientale_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lysimachia europaea (L.) U.Manns &amp; Anderb., 2009</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Trientale_d%27Europe</t>
+          <t>Trientale_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,15 +556,52 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une petite plante herbacée qui pousse dans les pinèdes du nord de l'Europe.
 Elle présente une rosette de feuilles surélevée, de laquelle part une à trois fleurs blanches à généralement 7 pétales.
 Elle est très rare en France : quelques stations en Ardenne, dans les Vosges, le Haut Jura et en Savoie. Elle est également présente dans une vallée de Corse (Asco).
 En Europe moyenne, on la trouve notamment dans les Hautes Fagnes (Belgique et Allemagne) et dans quelques régions d'Autriche (sur sols granitiques).
 La trientale - Siebenstern en allemand, signifiant "étoile à 7 branches" - est la fleur symbole de la réserve naturelle des Hautes Fagnes et de l'association de randonnée du Fichtelgebirge.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trientale_d'Europe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Trientale_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : juin-septembre
 Inflorescence : fleur solitaire terminale
@@ -568,31 +619,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Trientale_d%27Europe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Trientale_d'Europe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Trientale_d%27Europe</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée sur l'ensemble du territoire métropolitain. Elle figure sur la liste rouge régionale des espèces de plantes du Nord-Pas-de-Calais.
 En Belgique, l'espèce est légalement protégée.
